--- a/biology/Botanique/Avicennia_germinans/Avicennia_germinans.xlsx
+++ b/biology/Botanique/Avicennia_germinans/Avicennia_germinans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Avicennia germinans ou palétuvier blanc - gris - noir [1] ou  bois de mèche est un arbre de la famille des Verbenaceae, ou des Acanthaceae selon la classification phylogénétique, poussant dans la mangrove.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Avicennia germinans ou palétuvier blanc - gris - noir  ou  bois de mèche est un arbre de la famille des Verbenaceae, ou des Acanthaceae selon la classification phylogénétique, poussant dans la mangrove.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Avicennia vient de ابن سينا (Ibn Sina?), plus connu en Europe sous le nom de Avicenne (980-1037), philosophe et médecin persan ; le suffixe spécifique germinans vient du latin germin, « germination, bourgeonnement ».
-Nom vernaculaires
-Parmi les très nombreux noms vernaculaires donnés à la plante, citons :
-black mangrove, bois de mèche ou bwadmèch,  chine de vaca, mangle bobo, mang blan, mang gri, mangle nero, palétuvier gris, palétuvier noir, prieto, salado[2] ou encore : manga, mangle, manglier noir, olive mangrove[3].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avicennia vient de ابن سينا (Ibn Sina?), plus connu en Europe sous le nom de Avicenne (980-1037), philosophe et médecin persan ; le suffixe spécifique germinans vient du latin germin, « germination, bourgeonnement ».
 </t>
         </is>
       </c>
@@ -543,10 +557,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les très nombreux noms vernaculaires donnés à la plante, citons :
+black mangrove, bois de mèche ou bwadmèch,  chine de vaca, mangle bobo, mang blan, mang gri, mangle nero, palétuvier gris, palétuvier noir, prieto, salado ou encore : manga, mangle, manglier noir, olive mangrove.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Avicennia_germinans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Avicennia_germinans</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nomenclaturaux
 Avicennia tomentosa Jacq. 1760 Enum. Syst. Pl. 25
@@ -556,40 +610,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Avicennia_germinans</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Avicennia_germinans</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Avicennia germinans est un arbuste[4] ou un petit arbre de 3 à 7 mètres (jusqu'à 15 m dans certaines régions), dont les branches et rameaux sont couverts d'une écorce grise ou brunâtre, marquée de cicatrices foliaires. Ses racines développent des ramifications qui pointent hors du sol (on les qualifie de pneumatophores). Elles sont couvertes de lenticelles qui indiquent la présence d'échange gazeux.
-Les feuilles opposées, coriaces sont elliptiques-lancéolées, lisses et luisantes en dessus, blanchâtres en dessous, de 8-15 × 3-4 cm, aiguës aux deux extrémités. Elles possèdent des glandes à sels qui excrètent l'excès de sel.
-Les fleurs en général opposées, de 1 à 15 paires par épis, sont sessiles. Elles comportent 5 sépales presque libres, une corolle rotacée[5], à 4 lobes, pubescent à l'extérieur, veloutés à l'intérieur et 4 étamines.
-Le fruit est une capsule comprimée, oblique de 12-20 mm de long.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -611,10 +631,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Avicennia germinans est un arbuste ou un petit arbre de 3 à 7 mètres (jusqu'à 15 m dans certaines régions), dont les branches et rameaux sont couverts d'une écorce grise ou brunâtre, marquée de cicatrices foliaires. Ses racines développent des ramifications qui pointent hors du sol (on les qualifie de pneumatophores). Elles sont couvertes de lenticelles qui indiquent la présence d'échange gazeux.
+Les feuilles opposées, coriaces sont elliptiques-lancéolées, lisses et luisantes en dessus, blanchâtres en dessous, de 8-15 × 3-4 cm, aiguës aux deux extrémités. Elles possèdent des glandes à sels qui excrètent l'excès de sel.
+Les fleurs en général opposées, de 1 à 15 paires par épis, sont sessiles. Elles comportent 5 sépales presque libres, une corolle rotacée, à 4 lobes, pubescent à l'extérieur, veloutés à l'intérieur et 4 étamines.
+Le fruit est une capsule comprimée, oblique de 12-20 mm de long.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Avicennia_germinans</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Avicennia_germinans</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce palétuvier se rencontre sur les côtes des Antilles, du Mexique, de l'Amérique centrale, des Guyanes et sur les côtes occidentales de l'Afrique.
 C'est un arbre caractéristique de la mangrove. Sa principale particularité est d'être pourvu de racines aériennes qui facilitent les échanges gazeux (pneumatophores).
@@ -628,31 +686,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Avicennia_germinans</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Avicennia_germinans</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois sert à fabriquer des poteaux, du charbon de bois et du bois de chauffage. L'écorce est riche en tanin servant à tanner les peaux.
 </t>
